--- a/data/pca/factorExposure/factorExposure_2019-05-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-05-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1268030846899906</v>
+        <v>0.0792370447041944</v>
       </c>
       <c r="C2">
-        <v>0.02204849080785777</v>
+        <v>0.0167715934651734</v>
       </c>
       <c r="D2">
-        <v>-0.03111813605604569</v>
+        <v>-0.04212569445511529</v>
       </c>
       <c r="E2">
-        <v>-0.0943554858276381</v>
+        <v>-0.1092545574040139</v>
       </c>
       <c r="F2">
-        <v>0.09762256127425324</v>
+        <v>0.0860990603792354</v>
       </c>
       <c r="G2">
-        <v>0.1281557081835372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.09059426504567089</v>
+      </c>
+      <c r="H2">
+        <v>-0.0843788694442256</v>
+      </c>
+      <c r="I2">
+        <v>0.02156849245054833</v>
+      </c>
+      <c r="J2">
+        <v>0.03675961572448821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2155504908552971</v>
+        <v>0.1633906642459199</v>
       </c>
       <c r="C3">
-        <v>-0.08029160276151159</v>
+        <v>0.08316280693184656</v>
       </c>
       <c r="D3">
-        <v>0.05371166382246454</v>
+        <v>0.02836329262238593</v>
       </c>
       <c r="E3">
-        <v>-0.3154994990940536</v>
+        <v>-0.242986660429086</v>
       </c>
       <c r="F3">
-        <v>0.03044661816120644</v>
+        <v>0.3016970082941299</v>
       </c>
       <c r="G3">
-        <v>0.368138817363602</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.02331161926677168</v>
+      </c>
+      <c r="H3">
+        <v>-0.2849195069865452</v>
+      </c>
+      <c r="I3">
+        <v>0.1473712097032869</v>
+      </c>
+      <c r="J3">
+        <v>0.3613754797819175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09940817622870571</v>
+        <v>0.07352877340483072</v>
       </c>
       <c r="C4">
-        <v>-0.0214358126075407</v>
+        <v>0.03470653606144291</v>
       </c>
       <c r="D4">
-        <v>-0.01240083102477921</v>
+        <v>-0.02601534920066742</v>
       </c>
       <c r="E4">
-        <v>-0.07479051229644</v>
+        <v>-0.03534722779923908</v>
       </c>
       <c r="F4">
-        <v>0.05524710728250683</v>
+        <v>0.08917758933442155</v>
       </c>
       <c r="G4">
-        <v>0.0404337776996971</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03620590293775974</v>
+      </c>
+      <c r="H4">
+        <v>-0.03214122092423043</v>
+      </c>
+      <c r="I4">
+        <v>0.02657062195344453</v>
+      </c>
+      <c r="J4">
+        <v>0.04418477285471639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01372246075737883</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.003121745277661029</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.0003005532221120238</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.003320786800224627</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.003417114955236567</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.018719140265055</v>
+      </c>
+      <c r="H6">
+        <v>-0.002015559317099194</v>
+      </c>
+      <c r="I6">
+        <v>-0.002478430725957603</v>
+      </c>
+      <c r="J6">
+        <v>-0.001148843600921888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04355475696798842</v>
+        <v>0.03397555741643896</v>
       </c>
       <c r="C7">
-        <v>-0.004827896528375132</v>
+        <v>0.0183088749308256</v>
       </c>
       <c r="D7">
-        <v>-0.0275656715730007</v>
+        <v>-0.0198021755136864</v>
       </c>
       <c r="E7">
-        <v>-0.08449231001728981</v>
+        <v>-0.03383264928978788</v>
       </c>
       <c r="F7">
-        <v>-0.03140092232446112</v>
+        <v>0.05117025535242684</v>
       </c>
       <c r="G7">
-        <v>0.01515760008741792</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.01314068048355471</v>
+      </c>
+      <c r="H7">
+        <v>-0.04703653502813506</v>
+      </c>
+      <c r="I7">
+        <v>0.001360913799399333</v>
+      </c>
+      <c r="J7">
+        <v>0.01036754574600083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04377128978689045</v>
+        <v>0.03259807237398784</v>
       </c>
       <c r="C8">
-        <v>-0.03629875350680178</v>
+        <v>0.03828233384155478</v>
       </c>
       <c r="D8">
-        <v>0.002335640825889533</v>
+        <v>-0.008763128525979599</v>
       </c>
       <c r="E8">
-        <v>-0.06984788058246989</v>
+        <v>-0.03602407265180696</v>
       </c>
       <c r="F8">
-        <v>0.002674385354560701</v>
+        <v>0.07746503452925868</v>
       </c>
       <c r="G8">
-        <v>0.0572808107801937</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.001014242500371741</v>
+      </c>
+      <c r="H8">
+        <v>-0.05576672621118762</v>
+      </c>
+      <c r="I8">
+        <v>0.02731773122027331</v>
+      </c>
+      <c r="J8">
+        <v>0.03831284200470938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08568509123997282</v>
+        <v>0.06246796488843265</v>
       </c>
       <c r="C9">
-        <v>-0.0243558562256808</v>
+        <v>0.03531962821620158</v>
       </c>
       <c r="D9">
-        <v>-0.02443496434469825</v>
+        <v>-0.02693577391676749</v>
       </c>
       <c r="E9">
-        <v>-0.06867001422392102</v>
+        <v>-0.03329465142413119</v>
       </c>
       <c r="F9">
-        <v>0.03605622688441671</v>
+        <v>0.08934227143901012</v>
       </c>
       <c r="G9">
-        <v>0.03716615441848747</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.0264188621308635</v>
+      </c>
+      <c r="H9">
+        <v>-0.02854215234210098</v>
+      </c>
+      <c r="I9">
+        <v>0.007534080019674227</v>
+      </c>
+      <c r="J9">
+        <v>0.006361510898586149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.0160026610586289</v>
+        <v>0.01052754792803931</v>
       </c>
       <c r="C10">
-        <v>0.1614008101235697</v>
+        <v>-0.1602340873433594</v>
       </c>
       <c r="D10">
-        <v>0.01474599430439649</v>
+        <v>0.01445705019967417</v>
       </c>
       <c r="E10">
-        <v>-0.0510048260905283</v>
+        <v>-0.05214430346555549</v>
       </c>
       <c r="F10">
-        <v>0.009233008908362659</v>
+        <v>0.03423042690734045</v>
       </c>
       <c r="G10">
-        <v>-0.0002118654108136394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02109105986116766</v>
+      </c>
+      <c r="H10">
+        <v>0.005644636704582487</v>
+      </c>
+      <c r="I10">
+        <v>0.1185093754394736</v>
+      </c>
+      <c r="J10">
+        <v>0.01008011159017613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05783991888539268</v>
+        <v>0.04872946243452526</v>
       </c>
       <c r="C11">
-        <v>-0.003491315249221187</v>
+        <v>0.02154487817582254</v>
       </c>
       <c r="D11">
-        <v>0.01093737370314409</v>
+        <v>-0.006500756318267562</v>
       </c>
       <c r="E11">
-        <v>-0.04064840525924083</v>
+        <v>-0.03853796198638775</v>
       </c>
       <c r="F11">
-        <v>0.00725255372991703</v>
+        <v>0.02419079572240312</v>
       </c>
       <c r="G11">
-        <v>-0.01567762194992763</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.001831158232353671</v>
+      </c>
+      <c r="H11">
+        <v>-0.01434159172256773</v>
+      </c>
+      <c r="I11">
+        <v>-0.01679270454586985</v>
+      </c>
+      <c r="J11">
+        <v>0.01020301994723427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04388306887548585</v>
+        <v>0.04402249133413948</v>
       </c>
       <c r="C12">
-        <v>-0.0107460034084006</v>
+        <v>0.02230613369691706</v>
       </c>
       <c r="D12">
-        <v>0.007814959919592374</v>
+        <v>-0.006265148058967688</v>
       </c>
       <c r="E12">
-        <v>-0.03410920025938881</v>
+        <v>-0.01563087096982923</v>
       </c>
       <c r="F12">
-        <v>0.00342100346067626</v>
+        <v>0.02126882326357104</v>
       </c>
       <c r="G12">
-        <v>-2.156670354909661e-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.003780349200995929</v>
+      </c>
+      <c r="H12">
+        <v>-0.01130868060280983</v>
+      </c>
+      <c r="I12">
+        <v>-0.01803494264919626</v>
+      </c>
+      <c r="J12">
+        <v>0.003781630941977214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.0607564211217208</v>
+        <v>0.04122085273296127</v>
       </c>
       <c r="C13">
-        <v>-0.01482647422874674</v>
+        <v>0.02230634535235415</v>
       </c>
       <c r="D13">
-        <v>0.01623358579732375</v>
+        <v>-0.008416536107493284</v>
       </c>
       <c r="E13">
-        <v>-0.1077707704302206</v>
+        <v>-0.08152027134690072</v>
       </c>
       <c r="F13">
-        <v>0.02281770952688395</v>
+        <v>0.06632085191771658</v>
       </c>
       <c r="G13">
-        <v>0.05240789493521469</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.00767453993437142</v>
+      </c>
+      <c r="H13">
+        <v>-0.06001879108597603</v>
+      </c>
+      <c r="I13">
+        <v>0.008862407892106683</v>
+      </c>
+      <c r="J13">
+        <v>0.0245841581408591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03827976604775588</v>
+        <v>0.02811350123879467</v>
       </c>
       <c r="C14">
-        <v>-0.006044698313030736</v>
+        <v>0.01481797914989164</v>
       </c>
       <c r="D14">
-        <v>-0.01956402058270361</v>
+        <v>-0.02355733660503087</v>
       </c>
       <c r="E14">
-        <v>-0.02110352227733668</v>
+        <v>-0.01850907782605052</v>
       </c>
       <c r="F14">
-        <v>-0.002676934883272113</v>
+        <v>0.03646361398768353</v>
       </c>
       <c r="G14">
-        <v>0.04280772987532135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.01518179091805986</v>
+      </c>
+      <c r="H14">
+        <v>-0.05784465568351511</v>
+      </c>
+      <c r="I14">
+        <v>0.01665860791600896</v>
+      </c>
+      <c r="J14">
+        <v>-0.008113880045727922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04880002332397056</v>
+        <v>0.04188882982687107</v>
       </c>
       <c r="C16">
-        <v>-0.02075625432404529</v>
+        <v>0.02905482813086769</v>
       </c>
       <c r="D16">
-        <v>0.01902518360992607</v>
+        <v>-0.001195824932264628</v>
       </c>
       <c r="E16">
-        <v>-0.03808104301491801</v>
+        <v>-0.0317850431509904</v>
       </c>
       <c r="F16">
-        <v>0.00169916601817341</v>
+        <v>0.0232725836689024</v>
       </c>
       <c r="G16">
-        <v>-0.01169188107317406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.006848653266563739</v>
+      </c>
+      <c r="H16">
+        <v>-0.01587067864047071</v>
+      </c>
+      <c r="I16">
+        <v>-0.01512612292982164</v>
+      </c>
+      <c r="J16">
+        <v>0.008807004249902908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05312310046780504</v>
+        <v>0.04539917197426446</v>
       </c>
       <c r="C19">
-        <v>-0.02601985308136053</v>
+        <v>0.035523603750126</v>
       </c>
       <c r="D19">
-        <v>0.001932020528688388</v>
+        <v>-0.01036826806248749</v>
       </c>
       <c r="E19">
-        <v>-0.07837154338927603</v>
+        <v>-0.06035972839340731</v>
       </c>
       <c r="F19">
-        <v>-0.0008267618790961594</v>
+        <v>0.06923012967080366</v>
       </c>
       <c r="G19">
-        <v>0.07318413270742631</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.004638021620052332</v>
+      </c>
+      <c r="H19">
+        <v>-0.08623833891729708</v>
+      </c>
+      <c r="I19">
+        <v>0.03655221254917018</v>
+      </c>
+      <c r="J19">
+        <v>0.01768293468769444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03836991101116097</v>
+        <v>0.01906856492086771</v>
       </c>
       <c r="C20">
-        <v>-0.03314350088986372</v>
+        <v>0.03355431894681951</v>
       </c>
       <c r="D20">
-        <v>-0.007146487390272451</v>
+        <v>-0.01636731111700466</v>
       </c>
       <c r="E20">
-        <v>-0.06716597412504867</v>
+        <v>-0.03938694154891466</v>
       </c>
       <c r="F20">
-        <v>-0.0131844264687909</v>
+        <v>0.06044176467914148</v>
       </c>
       <c r="G20">
-        <v>0.04624769263034485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.0110480433852653</v>
+      </c>
+      <c r="H20">
+        <v>-0.07584438268549501</v>
+      </c>
+      <c r="I20">
+        <v>0.014484677738939</v>
+      </c>
+      <c r="J20">
+        <v>0.04796078839866019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03903941916182887</v>
+        <v>0.01889622337894947</v>
       </c>
       <c r="C21">
-        <v>-0.01375028726653408</v>
+        <v>0.0251189915378002</v>
       </c>
       <c r="D21">
-        <v>0.01267283476817156</v>
+        <v>0.001731255977253778</v>
       </c>
       <c r="E21">
-        <v>-0.0845786914098423</v>
+        <v>-0.0432233131537655</v>
       </c>
       <c r="F21">
-        <v>0.04532048946430118</v>
+        <v>0.06882853860121271</v>
       </c>
       <c r="G21">
-        <v>0.05397779179746758</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.02084338885302927</v>
+      </c>
+      <c r="H21">
+        <v>-0.04228220693825882</v>
+      </c>
+      <c r="I21">
+        <v>-0.007070586482326537</v>
+      </c>
+      <c r="J21">
+        <v>-0.01239759397965237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04852938092204974</v>
+        <v>0.04152054513349573</v>
       </c>
       <c r="C24">
-        <v>-0.01196857230026572</v>
+        <v>0.01919325270210402</v>
       </c>
       <c r="D24">
-        <v>0.006793165476486946</v>
+        <v>-0.006536561692912127</v>
       </c>
       <c r="E24">
-        <v>-0.0484116632653559</v>
+        <v>-0.03442125837571895</v>
       </c>
       <c r="F24">
-        <v>0.004413885350950871</v>
+        <v>0.02811802918790532</v>
       </c>
       <c r="G24">
-        <v>-0.006991177459099493</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01024860263259878</v>
+      </c>
+      <c r="H24">
+        <v>-0.0153957915832185</v>
+      </c>
+      <c r="I24">
+        <v>-0.01340288699720742</v>
+      </c>
+      <c r="J24">
+        <v>0.01805258311605243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.04956505346391655</v>
+        <v>0.04264237223373669</v>
       </c>
       <c r="C25">
-        <v>-0.003515132692450957</v>
+        <v>0.01996410317826049</v>
       </c>
       <c r="D25">
-        <v>0.01017719000686667</v>
+        <v>-0.003820591734066381</v>
       </c>
       <c r="E25">
-        <v>-0.04479691436839595</v>
+        <v>-0.03656961120762257</v>
       </c>
       <c r="F25">
-        <v>0.01080826939264745</v>
+        <v>0.03281144324623349</v>
       </c>
       <c r="G25">
-        <v>-0.01077078900029305</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.002635944929474216</v>
+      </c>
+      <c r="H25">
+        <v>-0.009004548282860866</v>
+      </c>
+      <c r="I25">
+        <v>-0.01630429421777985</v>
+      </c>
+      <c r="J25">
+        <v>0.006888541521566319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.006270627583680137</v>
+        <v>0.01202600988804847</v>
       </c>
       <c r="C26">
-        <v>-0.01631275503092903</v>
+        <v>0.01657297604463658</v>
       </c>
       <c r="D26">
-        <v>-0.004414873945027154</v>
+        <v>0.0008896487262373384</v>
       </c>
       <c r="E26">
-        <v>-0.04980041581796049</v>
+        <v>-0.0434877775536735</v>
       </c>
       <c r="F26">
-        <v>0.0194374450566453</v>
+        <v>0.03144926869414155</v>
       </c>
       <c r="G26">
-        <v>0.01512035266021139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.008373314842264607</v>
+      </c>
+      <c r="H26">
+        <v>-0.03746022425839823</v>
+      </c>
+      <c r="I26">
+        <v>-0.005448397225547665</v>
+      </c>
+      <c r="J26">
+        <v>0.01203778747062351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1125140779296923</v>
+        <v>0.08617535406582492</v>
       </c>
       <c r="C27">
-        <v>-0.01444339675191564</v>
+        <v>0.02736894914565546</v>
       </c>
       <c r="D27">
-        <v>-0.01008747545835513</v>
+        <v>-0.03015261302225513</v>
       </c>
       <c r="E27">
-        <v>-0.1112422261754004</v>
+        <v>-0.04542112683776058</v>
       </c>
       <c r="F27">
-        <v>0.02102552174881301</v>
+        <v>0.074742716426455</v>
       </c>
       <c r="G27">
-        <v>-0.004466542063214771</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.002049047924573806</v>
+      </c>
+      <c r="H27">
+        <v>-0.01016899039309759</v>
+      </c>
+      <c r="I27">
+        <v>0.003483326122374883</v>
+      </c>
+      <c r="J27">
+        <v>0.02812922822966408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.01617794935632043</v>
+        <v>0.0248224562671349</v>
       </c>
       <c r="C28">
-        <v>0.2415463943794432</v>
+        <v>-0.2327720942085925</v>
       </c>
       <c r="D28">
-        <v>0.02579739714007208</v>
+        <v>0.02180896928167995</v>
       </c>
       <c r="E28">
-        <v>-0.02522425359922126</v>
+        <v>-0.04155464350951485</v>
       </c>
       <c r="F28">
-        <v>0.009133851279471099</v>
+        <v>0.02840471070737446</v>
       </c>
       <c r="G28">
-        <v>-0.01970348308548481</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.0251946028488153</v>
+      </c>
+      <c r="H28">
+        <v>0.02791666909922958</v>
+      </c>
+      <c r="I28">
+        <v>0.163876542031024</v>
+      </c>
+      <c r="J28">
+        <v>0.02503214358318022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02085900252288482</v>
+        <v>0.0193539676941693</v>
       </c>
       <c r="C29">
-        <v>-0.01646481336422799</v>
+        <v>0.0186039068497795</v>
       </c>
       <c r="D29">
-        <v>-0.02218502200284633</v>
+        <v>-0.02206279730229029</v>
       </c>
       <c r="E29">
-        <v>-0.02995399812874405</v>
+        <v>-0.01402714574313108</v>
       </c>
       <c r="F29">
-        <v>0.00948669550596336</v>
+        <v>0.04092764657729288</v>
       </c>
       <c r="G29">
-        <v>0.0416344554847578</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.01510910504739126</v>
+      </c>
+      <c r="H29">
+        <v>-0.05667498096201209</v>
+      </c>
+      <c r="I29">
+        <v>0.007068280926486986</v>
+      </c>
+      <c r="J29">
+        <v>-0.02104216964919486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1059389112995114</v>
+        <v>0.09902292466789017</v>
       </c>
       <c r="C30">
-        <v>-0.008656063014330544</v>
+        <v>0.03607864333232162</v>
       </c>
       <c r="D30">
-        <v>-0.007470418999272752</v>
+        <v>-0.03264912548601717</v>
       </c>
       <c r="E30">
-        <v>-0.1257034329509196</v>
+        <v>-0.08919222965604066</v>
       </c>
       <c r="F30">
-        <v>0.03082437014710047</v>
+        <v>0.07092153327969167</v>
       </c>
       <c r="G30">
-        <v>-0.07234663339750327</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.0149145771039215</v>
+      </c>
+      <c r="H30">
+        <v>-0.01230640900874005</v>
+      </c>
+      <c r="I30">
+        <v>-0.03245196269693032</v>
+      </c>
+      <c r="J30">
+        <v>-0.004029886559000679</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05774071870912117</v>
+        <v>0.05978389386185792</v>
       </c>
       <c r="C31">
-        <v>-0.01003931138168169</v>
+        <v>0.01751577085764503</v>
       </c>
       <c r="D31">
-        <v>-0.01949412866483044</v>
+        <v>-0.01964654208114837</v>
       </c>
       <c r="E31">
-        <v>0.02032942040388138</v>
+        <v>-0.01248621881206305</v>
       </c>
       <c r="F31">
-        <v>0.005431176674221693</v>
+        <v>-0.005399957868210008</v>
       </c>
       <c r="G31">
-        <v>0.01054121380261736</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03484342854749036</v>
+      </c>
+      <c r="H31">
+        <v>-0.04756496275326567</v>
+      </c>
+      <c r="I31">
+        <v>0.01252337525145621</v>
+      </c>
+      <c r="J31">
+        <v>-0.01868420372079694</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.07070863764418775</v>
+        <v>0.04798950150059661</v>
       </c>
       <c r="C32">
-        <v>-0.02376215668167024</v>
+        <v>0.04402097843080494</v>
       </c>
       <c r="D32">
-        <v>-0.004878505664131269</v>
+        <v>-0.02425405964187927</v>
       </c>
       <c r="E32">
-        <v>-0.118863850314554</v>
+        <v>-0.05426026490971948</v>
       </c>
       <c r="F32">
-        <v>-0.005936965014105115</v>
+        <v>0.08272149751598837</v>
       </c>
       <c r="G32">
-        <v>0.04728107589421328</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.0081178461457585</v>
+      </c>
+      <c r="H32">
+        <v>-0.05373894438110299</v>
+      </c>
+      <c r="I32">
+        <v>0.0173466381632244</v>
+      </c>
+      <c r="J32">
+        <v>0.0008956614358691143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06971870912509892</v>
+        <v>0.0579756810244639</v>
       </c>
       <c r="C33">
-        <v>-0.02875354967810675</v>
+        <v>0.04493016218552004</v>
       </c>
       <c r="D33">
-        <v>-0.005329310266019801</v>
+        <v>-0.007988818563604014</v>
       </c>
       <c r="E33">
-        <v>-0.06994304257459559</v>
+        <v>-0.06282123018764459</v>
       </c>
       <c r="F33">
-        <v>0.04260900212121194</v>
+        <v>0.05498207302186024</v>
       </c>
       <c r="G33">
-        <v>0.02423229454271158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01700120718949963</v>
+      </c>
+      <c r="H33">
+        <v>-0.05078001738166563</v>
+      </c>
+      <c r="I33">
+        <v>-0.01708679923620676</v>
+      </c>
+      <c r="J33">
+        <v>0.01081355697261329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04724209816860545</v>
+        <v>0.04131368205734681</v>
       </c>
       <c r="C34">
-        <v>-0.0122972656919912</v>
+        <v>0.0244874186871138</v>
       </c>
       <c r="D34">
-        <v>0.007382621424782011</v>
+        <v>-0.009561750174080052</v>
       </c>
       <c r="E34">
-        <v>-0.02586462951791971</v>
+        <v>-0.02648477956238652</v>
       </c>
       <c r="F34">
-        <v>-0.002704776464628193</v>
+        <v>0.02525923867092284</v>
       </c>
       <c r="G34">
-        <v>0.005421191788801145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-9.163505457522637e-06</v>
+      </c>
+      <c r="H34">
+        <v>-0.02039266970545011</v>
+      </c>
+      <c r="I34">
+        <v>-0.01372877067948345</v>
+      </c>
+      <c r="J34">
+        <v>5.980230310086461e-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01264272627239684</v>
+        <v>0.01436807331167822</v>
       </c>
       <c r="C36">
-        <v>0.01069191078548324</v>
+        <v>0.0007848948303743329</v>
       </c>
       <c r="D36">
-        <v>-0.005356239250680587</v>
+        <v>-0.007982859683925857</v>
       </c>
       <c r="E36">
-        <v>-0.02333215732840361</v>
+        <v>-0.01700818159768762</v>
       </c>
       <c r="F36">
-        <v>0.009473095489497332</v>
+        <v>0.02522674558738876</v>
       </c>
       <c r="G36">
-        <v>0.01381727175536659</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01465056288532646</v>
+      </c>
+      <c r="H36">
+        <v>-0.03286527057253217</v>
+      </c>
+      <c r="I36">
+        <v>0.003465105136298691</v>
+      </c>
+      <c r="J36">
+        <v>-0.02007043447284931</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05551010657081502</v>
+        <v>0.03139583823952308</v>
       </c>
       <c r="C38">
-        <v>-0.001748553640052533</v>
+        <v>0.00861928468750639</v>
       </c>
       <c r="D38">
-        <v>-0.02292996177269834</v>
+        <v>-0.008877946717974415</v>
       </c>
       <c r="E38">
-        <v>-0.03233714129701529</v>
+        <v>-0.02965678486042012</v>
       </c>
       <c r="F38">
-        <v>0.01198130018148011</v>
+        <v>0.04280996883833673</v>
       </c>
       <c r="G38">
-        <v>0.04285938298811538</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02301605328096745</v>
+      </c>
+      <c r="H38">
+        <v>-0.01920420370579217</v>
+      </c>
+      <c r="I38">
+        <v>-0.00354784082770158</v>
+      </c>
+      <c r="J38">
+        <v>-0.02880823260005484</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07583703558211409</v>
+        <v>0.05834445622529266</v>
       </c>
       <c r="C39">
-        <v>-0.01152325262218674</v>
+        <v>0.03505563094186846</v>
       </c>
       <c r="D39">
-        <v>0.003658639755494922</v>
+        <v>-0.01732397726963666</v>
       </c>
       <c r="E39">
-        <v>-0.04870033458700313</v>
+        <v>-0.05279959765108337</v>
       </c>
       <c r="F39">
-        <v>0.02326758923992739</v>
+        <v>0.03287327841648303</v>
       </c>
       <c r="G39">
-        <v>-0.007478226239766943</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.009011433376448283</v>
+      </c>
+      <c r="H39">
+        <v>-0.01683584541098371</v>
+      </c>
+      <c r="I39">
+        <v>-0.03423375738405237</v>
+      </c>
+      <c r="J39">
+        <v>0.005449989591564679</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07260586101516277</v>
+        <v>0.057027324421446</v>
       </c>
       <c r="C40">
-        <v>-0.02540174388438612</v>
+        <v>0.03395080332699806</v>
       </c>
       <c r="D40">
-        <v>0.002698468809641115</v>
+        <v>-0.0255588124688611</v>
       </c>
       <c r="E40">
-        <v>-0.1114838059752212</v>
+        <v>-0.09075238627523055</v>
       </c>
       <c r="F40">
-        <v>0.03952275294215928</v>
+        <v>0.06392114498796475</v>
       </c>
       <c r="G40">
-        <v>0.09639236859082061</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.001337574664989787</v>
+      </c>
+      <c r="H40">
+        <v>-0.08126085121441164</v>
+      </c>
+      <c r="I40">
+        <v>0.004188383965435058</v>
+      </c>
+      <c r="J40">
+        <v>0.05018871860160659</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.004094824311757539</v>
+        <v>0.001239002665769428</v>
       </c>
       <c r="C41">
-        <v>-0.01088031999023437</v>
+        <v>0.01055924173213129</v>
       </c>
       <c r="D41">
-        <v>-0.01545697390320739</v>
+        <v>-0.0055512319915342</v>
       </c>
       <c r="E41">
-        <v>-0.01059647364836048</v>
+        <v>-0.008452915040741062</v>
       </c>
       <c r="F41">
-        <v>0.02225840379817284</v>
+        <v>0.01608508785952069</v>
       </c>
       <c r="G41">
-        <v>0.0291463778311986</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.02716252680882432</v>
+      </c>
+      <c r="H41">
+        <v>-0.04083206837238657</v>
+      </c>
+      <c r="I41">
+        <v>0.02261671349973333</v>
+      </c>
+      <c r="J41">
+        <v>-0.002594219290657918</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1409744756935689</v>
+        <v>0.2405247853824129</v>
       </c>
       <c r="C42">
-        <v>-0.1928025044936963</v>
+        <v>0.1522693485001905</v>
       </c>
       <c r="D42">
-        <v>0.9276389356193444</v>
+        <v>0.9086023970826393</v>
       </c>
       <c r="E42">
-        <v>0.1029688476202282</v>
+        <v>-0.03576675665595213</v>
       </c>
       <c r="F42">
-        <v>-0.02980801093496487</v>
+        <v>-0.2439261247439971</v>
       </c>
       <c r="G42">
-        <v>-0.1160465933246609</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.009234345155514679</v>
+      </c>
+      <c r="H42">
+        <v>-0.005013093133621558</v>
+      </c>
+      <c r="I42">
+        <v>0.05919233176937708</v>
+      </c>
+      <c r="J42">
+        <v>0.005547061786553927</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.00807349024516477</v>
+        <v>0.003458643824514046</v>
       </c>
       <c r="C43">
-        <v>-0.01340168679817615</v>
+        <v>0.01314356041519856</v>
       </c>
       <c r="D43">
-        <v>-0.01643776674129235</v>
+        <v>-0.00673289719336246</v>
       </c>
       <c r="E43">
-        <v>-0.03165953924700995</v>
+        <v>-0.0178559488913573</v>
       </c>
       <c r="F43">
-        <v>-0.002262812561870727</v>
+        <v>0.02359836246215823</v>
       </c>
       <c r="G43">
-        <v>0.02153877243932246</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.007840093725219389</v>
+      </c>
+      <c r="H43">
+        <v>-0.03909242356626531</v>
+      </c>
+      <c r="I43">
+        <v>0.01357280778257275</v>
+      </c>
+      <c r="J43">
+        <v>0.001855219356347315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04105587060436533</v>
+        <v>0.02756312524767371</v>
       </c>
       <c r="C44">
-        <v>-0.03615682382939445</v>
+        <v>0.03265739721684923</v>
       </c>
       <c r="D44">
-        <v>-0.0005546204179546443</v>
+        <v>-0.004096429488692041</v>
       </c>
       <c r="E44">
-        <v>-0.1122345245994161</v>
+        <v>-0.08270603881477279</v>
       </c>
       <c r="F44">
-        <v>0.07814066449171238</v>
+        <v>0.09150020369141336</v>
       </c>
       <c r="G44">
-        <v>0.1291029413891231</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03241038961528997</v>
+      </c>
+      <c r="H44">
+        <v>-0.1193487581407133</v>
+      </c>
+      <c r="I44">
+        <v>0.02146059812250233</v>
+      </c>
+      <c r="J44">
+        <v>0.01330282794216473</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02203557916973529</v>
+        <v>0.02162551557615819</v>
       </c>
       <c r="C46">
-        <v>-0.01185864353805403</v>
+        <v>0.02494471401630931</v>
       </c>
       <c r="D46">
-        <v>-0.02401465822390452</v>
+        <v>-0.02027273196496281</v>
       </c>
       <c r="E46">
-        <v>-0.02288409410545915</v>
+        <v>-0.02958861211093829</v>
       </c>
       <c r="F46">
-        <v>0.02367411461508113</v>
+        <v>0.03734875662350737</v>
       </c>
       <c r="G46">
-        <v>0.04278824734730222</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01696944849426553</v>
+      </c>
+      <c r="H46">
+        <v>-0.06270524096726136</v>
+      </c>
+      <c r="I46">
+        <v>0.01529360515031005</v>
+      </c>
+      <c r="J46">
+        <v>0.001627509189352841</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08161548534958722</v>
+        <v>0.08882234089825637</v>
       </c>
       <c r="C47">
-        <v>-0.004918591196005873</v>
+        <v>0.01690369631958178</v>
       </c>
       <c r="D47">
-        <v>-0.02180546110977648</v>
+        <v>-0.02520648337132099</v>
       </c>
       <c r="E47">
-        <v>0.02357499513969334</v>
+        <v>0.003120079888609303</v>
       </c>
       <c r="F47">
-        <v>0.001834648555260894</v>
+        <v>-0.002896264343741114</v>
       </c>
       <c r="G47">
-        <v>0.03366336803854681</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.03336985983274081</v>
+      </c>
+      <c r="H47">
+        <v>-0.0651271155590321</v>
+      </c>
+      <c r="I47">
+        <v>0.02258774508682743</v>
+      </c>
+      <c r="J47">
+        <v>-0.005274055652066199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01570453524146753</v>
+        <v>0.0164757468755941</v>
       </c>
       <c r="C48">
-        <v>-0.01546661052289357</v>
+        <v>0.01867841596467585</v>
       </c>
       <c r="D48">
-        <v>-0.01328400174204305</v>
+        <v>-0.009397688259687962</v>
       </c>
       <c r="E48">
-        <v>-0.03455330138823477</v>
+        <v>-0.0183271738279517</v>
       </c>
       <c r="F48">
-        <v>0.01675664847167178</v>
+        <v>0.03184951148090169</v>
       </c>
       <c r="G48">
-        <v>0.01205795157014579</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.007809697247361511</v>
+      </c>
+      <c r="H48">
+        <v>-0.02459675444482596</v>
+      </c>
+      <c r="I48">
+        <v>0.01293457625065524</v>
+      </c>
+      <c r="J48">
+        <v>-0.002704017114555834</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.07912952377819327</v>
+        <v>0.08274168104438312</v>
       </c>
       <c r="C50">
-        <v>-0.01755085511528169</v>
+        <v>0.02818778560790124</v>
       </c>
       <c r="D50">
-        <v>-0.02459312886625052</v>
+        <v>-0.0203371530785153</v>
       </c>
       <c r="E50">
-        <v>0.02793838548641421</v>
+        <v>0.004406662766765326</v>
       </c>
       <c r="F50">
-        <v>0.0005703440643317893</v>
+        <v>0.004092704980501577</v>
       </c>
       <c r="G50">
-        <v>0.02058869518212528</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.005405843620832055</v>
+      </c>
+      <c r="H50">
+        <v>-0.05274583046440629</v>
+      </c>
+      <c r="I50">
+        <v>0.004948571796713603</v>
+      </c>
+      <c r="J50">
+        <v>-0.0505882267915978</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.07141648213539763</v>
+        <v>0.0483544211515635</v>
       </c>
       <c r="C51">
-        <v>0.0244002276524817</v>
+        <v>-0.004322923987461738</v>
       </c>
       <c r="D51">
-        <v>0.008611758514002808</v>
+        <v>-0.01165794405875249</v>
       </c>
       <c r="E51">
-        <v>-0.07370888815965987</v>
+        <v>-0.08141596649567934</v>
       </c>
       <c r="F51">
-        <v>0.05298843609133957</v>
+        <v>0.05508565732873705</v>
       </c>
       <c r="G51">
-        <v>0.02298758389558369</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04480521622616027</v>
+      </c>
+      <c r="H51">
+        <v>-0.06405516329384882</v>
+      </c>
+      <c r="I51">
+        <v>0.03290407995702045</v>
+      </c>
+      <c r="J51">
+        <v>-0.00593887770688537</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1440778372458819</v>
+        <v>0.1278073413426319</v>
       </c>
       <c r="C53">
-        <v>-0.005846333173569515</v>
+        <v>0.03377812634142718</v>
       </c>
       <c r="D53">
-        <v>-0.04746491069461393</v>
+        <v>-0.04846152921444064</v>
       </c>
       <c r="E53">
-        <v>0.03569012821636443</v>
+        <v>0.0247544425323389</v>
       </c>
       <c r="F53">
-        <v>-0.01173202142141361</v>
+        <v>-0.02093218905891889</v>
       </c>
       <c r="G53">
-        <v>0.001588495548383787</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02298299628754107</v>
+      </c>
+      <c r="H53">
+        <v>-0.006916871799288916</v>
+      </c>
+      <c r="I53">
+        <v>0.03102227344923711</v>
+      </c>
+      <c r="J53">
+        <v>0.03935101951366016</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02583170859025506</v>
+        <v>0.02148830708443742</v>
       </c>
       <c r="C54">
-        <v>0.006306316756386919</v>
+        <v>0.00748576311872984</v>
       </c>
       <c r="D54">
-        <v>-0.02457424473227716</v>
+        <v>-0.02472795870266908</v>
       </c>
       <c r="E54">
-        <v>-0.03102694760271617</v>
+        <v>-0.01816898433593624</v>
       </c>
       <c r="F54">
-        <v>0.04013924781213797</v>
+        <v>0.04315850705162784</v>
       </c>
       <c r="G54">
-        <v>0.05352377941939045</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03351719191444395</v>
+      </c>
+      <c r="H54">
+        <v>-0.05447171489846292</v>
+      </c>
+      <c r="I54">
+        <v>0.03188821316899998</v>
+      </c>
+      <c r="J54">
+        <v>-0.02569739469359594</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09722664925883628</v>
+        <v>0.1012042656569386</v>
       </c>
       <c r="C55">
-        <v>0.005056700712372368</v>
+        <v>0.01813390894685321</v>
       </c>
       <c r="D55">
-        <v>-0.04034350318819252</v>
+        <v>-0.03064632468349951</v>
       </c>
       <c r="E55">
-        <v>0.0004655506870376552</v>
+        <v>0.03655515187182694</v>
       </c>
       <c r="F55">
-        <v>-0.02810783228318503</v>
+        <v>0.006516921862685134</v>
       </c>
       <c r="G55">
-        <v>-0.006469299820777684</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01157355599538422</v>
+      </c>
+      <c r="H55">
+        <v>-0.0203965512257071</v>
+      </c>
+      <c r="I55">
+        <v>0.0105877229466706</v>
+      </c>
+      <c r="J55">
+        <v>0.02776143736579981</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1780913768334204</v>
+        <v>0.1691417242830731</v>
       </c>
       <c r="C56">
-        <v>0.02063434008481123</v>
+        <v>0.0153796085012379</v>
       </c>
       <c r="D56">
-        <v>-0.08041912383337563</v>
+        <v>-0.08423802228929647</v>
       </c>
       <c r="E56">
-        <v>0.06485407193955225</v>
+        <v>0.06900514078782923</v>
       </c>
       <c r="F56">
-        <v>-0.0684290624422816</v>
+        <v>-0.03620791629422304</v>
       </c>
       <c r="G56">
-        <v>-0.02626185044964373</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02267848035656201</v>
+      </c>
+      <c r="H56">
+        <v>0.0373258343051039</v>
+      </c>
+      <c r="I56">
+        <v>-0.001531189651359938</v>
+      </c>
+      <c r="J56">
+        <v>0.06399880701348319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09016239887514406</v>
+        <v>0.06941984601043445</v>
       </c>
       <c r="C57">
-        <v>-0.02185017422158295</v>
+        <v>0.0283108026354881</v>
       </c>
       <c r="D57">
-        <v>-0.02475784196398409</v>
+        <v>-0.01371870255566666</v>
       </c>
       <c r="E57">
-        <v>-0.06729706217140813</v>
+        <v>-0.05421485446068591</v>
       </c>
       <c r="F57">
-        <v>0.02068032357124371</v>
+        <v>0.04599976898491207</v>
       </c>
       <c r="G57">
-        <v>0.0457551681753246</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.00490574669041356</v>
+      </c>
+      <c r="H57">
+        <v>-0.04244683388479101</v>
+      </c>
+      <c r="I57">
+        <v>-0.01310293737729517</v>
+      </c>
+      <c r="J57">
+        <v>0.03855645150877659</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1635068485019114</v>
+        <v>0.1976406658209675</v>
       </c>
       <c r="C58">
-        <v>0.008521837788554754</v>
+        <v>0.043013969203039</v>
       </c>
       <c r="D58">
-        <v>0.05703439669354488</v>
+        <v>0.008059475182479651</v>
       </c>
       <c r="E58">
-        <v>-0.1355662185250431</v>
+        <v>-0.1539066997968193</v>
       </c>
       <c r="F58">
-        <v>-0.07487229237530764</v>
+        <v>0.1159399462651814</v>
       </c>
       <c r="G58">
-        <v>0.2724331174938763</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1672421643379464</v>
+      </c>
+      <c r="H58">
+        <v>-0.3240844744236278</v>
+      </c>
+      <c r="I58">
+        <v>0.03058746237525257</v>
+      </c>
+      <c r="J58">
+        <v>-0.6490741840038542</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.003497872542963661</v>
+        <v>0.02847967776241785</v>
       </c>
       <c r="C59">
-        <v>0.2043571529006847</v>
+        <v>-0.1986936777743579</v>
       </c>
       <c r="D59">
-        <v>-0.007816371520420133</v>
+        <v>-0.01281111415146667</v>
       </c>
       <c r="E59">
-        <v>-0.04783403394701044</v>
+        <v>-0.06203377547832223</v>
       </c>
       <c r="F59">
-        <v>0.008175145131119438</v>
+        <v>0.02381499167998072</v>
       </c>
       <c r="G59">
-        <v>-0.02252020479646048</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.001789704410946539</v>
+      </c>
+      <c r="H59">
+        <v>0.02234283438623112</v>
+      </c>
+      <c r="I59">
+        <v>0.06947298837191418</v>
+      </c>
+      <c r="J59">
+        <v>-0.02988877023409911</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1874684036891179</v>
+        <v>0.1840728330736171</v>
       </c>
       <c r="C60">
-        <v>0.117612016675329</v>
+        <v>-0.05563258939999278</v>
       </c>
       <c r="D60">
-        <v>-0.0164771671656274</v>
+        <v>-0.02998433282496765</v>
       </c>
       <c r="E60">
-        <v>-0.1713378334881374</v>
+        <v>-0.2012702199760746</v>
       </c>
       <c r="F60">
-        <v>0.05292980809830115</v>
+        <v>0.07885454232705709</v>
       </c>
       <c r="G60">
-        <v>-0.1769391729947497</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.06460747802372271</v>
+      </c>
+      <c r="H60">
+        <v>0.2442346252383027</v>
+      </c>
+      <c r="I60">
+        <v>-0.1068417851810692</v>
+      </c>
+      <c r="J60">
+        <v>-0.008798036009326028</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04828684455138951</v>
+        <v>0.03849378740543701</v>
       </c>
       <c r="C61">
-        <v>-0.0003601078112001716</v>
+        <v>0.0188759426591162</v>
       </c>
       <c r="D61">
-        <v>0.01166080864979952</v>
+        <v>-0.002701508181647425</v>
       </c>
       <c r="E61">
-        <v>-0.05000411629253162</v>
+        <v>-0.03884776206407391</v>
       </c>
       <c r="F61">
-        <v>0.02292201958528291</v>
+        <v>0.02787951689268528</v>
       </c>
       <c r="G61">
-        <v>-0.01957352398733363</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.004495949241793104</v>
+      </c>
+      <c r="H61">
+        <v>-0.002389385528900443</v>
+      </c>
+      <c r="I61">
+        <v>-0.03907999584569825</v>
+      </c>
+      <c r="J61">
+        <v>-0.0196574440284457</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04309304224691297</v>
+        <v>0.0292956297481506</v>
       </c>
       <c r="C63">
-        <v>0.01015963656752697</v>
+        <v>0.01414136941244296</v>
       </c>
       <c r="D63">
-        <v>-0.01410798395093458</v>
+        <v>-0.01386168087637796</v>
       </c>
       <c r="E63">
-        <v>-0.03640591550569044</v>
+        <v>-0.02312095668076904</v>
       </c>
       <c r="F63">
-        <v>0.006858975715784814</v>
+        <v>0.02140378797570434</v>
       </c>
       <c r="G63">
-        <v>0.01538113226498885</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.006324922526037423</v>
+      </c>
+      <c r="H63">
+        <v>-0.0445398067688523</v>
+      </c>
+      <c r="I63">
+        <v>0.03023599768281063</v>
+      </c>
+      <c r="J63">
+        <v>0.02129591976514811</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.08836154602566201</v>
+        <v>0.06358995539841795</v>
       </c>
       <c r="C64">
-        <v>-0.02713245820423756</v>
+        <v>0.04007611643836113</v>
       </c>
       <c r="D64">
-        <v>-0.05518554149964378</v>
+        <v>-0.03681181594793911</v>
       </c>
       <c r="E64">
-        <v>-0.05732852164157094</v>
+        <v>-0.01717392303090921</v>
       </c>
       <c r="F64">
-        <v>0.09902099136643079</v>
+        <v>0.07385860345828933</v>
       </c>
       <c r="G64">
-        <v>-0.0592027676762692</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06377409973227124</v>
+      </c>
+      <c r="H64">
+        <v>0.01508573660305149</v>
+      </c>
+      <c r="I64">
+        <v>0.0239744922562072</v>
+      </c>
+      <c r="J64">
+        <v>0.06889551936126874</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01529396308795858</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.003323669335823001</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.0003621626166925353</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.004862041546067712</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.001682003693277501</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.01983402715140816</v>
+      </c>
+      <c r="H65">
+        <v>0.001356731584031619</v>
+      </c>
+      <c r="I65">
+        <v>-0.004290858269250704</v>
+      </c>
+      <c r="J65">
+        <v>-0.00105452797594529</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.0982370512466829</v>
+        <v>0.07081306377966541</v>
       </c>
       <c r="C66">
-        <v>-0.01715937794451279</v>
+        <v>0.04856515086210294</v>
       </c>
       <c r="D66">
-        <v>-0.03423549378281102</v>
+        <v>-0.04396680413637871</v>
       </c>
       <c r="E66">
-        <v>-0.08500056993446979</v>
+        <v>-0.06641342140351696</v>
       </c>
       <c r="F66">
-        <v>0.04472747718782753</v>
+        <v>0.04420080651917122</v>
       </c>
       <c r="G66">
-        <v>-0.01165907252923661</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.007636007567875493</v>
+      </c>
+      <c r="H66">
+        <v>-0.009165647083442611</v>
+      </c>
+      <c r="I66">
+        <v>-0.04791870092507759</v>
+      </c>
+      <c r="J66">
+        <v>0.03260063494901105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06342292703028606</v>
+        <v>0.04185625108744929</v>
       </c>
       <c r="C67">
-        <v>0.02081502031361166</v>
+        <v>-0.006954280995215726</v>
       </c>
       <c r="D67">
-        <v>-0.01013324950309386</v>
+        <v>-0.007206118335925991</v>
       </c>
       <c r="E67">
-        <v>-0.02553874793278005</v>
+        <v>-0.02794934288881433</v>
       </c>
       <c r="F67">
-        <v>0.008513210031698689</v>
+        <v>0.02833189796796637</v>
       </c>
       <c r="G67">
-        <v>0.03528484478867113</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02847192410460608</v>
+      </c>
+      <c r="H67">
+        <v>-0.001864810090984524</v>
+      </c>
+      <c r="I67">
+        <v>-0.03800385030898461</v>
+      </c>
+      <c r="J67">
+        <v>-0.01073443882887649</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.004900946244470307</v>
+        <v>0.03550933888199546</v>
       </c>
       <c r="C68">
-        <v>0.2441859375112147</v>
+        <v>-0.2344695367044226</v>
       </c>
       <c r="D68">
-        <v>0.009312075311049221</v>
+        <v>-0.004402858703319993</v>
       </c>
       <c r="E68">
-        <v>-0.03208675860391154</v>
+        <v>-0.04890263394767694</v>
       </c>
       <c r="F68">
-        <v>-0.005044041087827961</v>
+        <v>0.01998489865013775</v>
       </c>
       <c r="G68">
-        <v>-0.009003834215486612</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.006631960148503336</v>
+      </c>
+      <c r="H68">
+        <v>0.02424808141939368</v>
+      </c>
+      <c r="I68">
+        <v>0.1662599586971097</v>
+      </c>
+      <c r="J68">
+        <v>-0.02512905435298243</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06714283658581685</v>
+        <v>0.06948844611596741</v>
       </c>
       <c r="C69">
-        <v>-0.005028551714553924</v>
+        <v>0.01533502677791351</v>
       </c>
       <c r="D69">
-        <v>-0.02822667551178836</v>
+        <v>-0.03094934039801718</v>
       </c>
       <c r="E69">
-        <v>0.008308356295765781</v>
+        <v>-0.008139589013598514</v>
       </c>
       <c r="F69">
-        <v>0.0005376155945686531</v>
+        <v>-0.0008165118194203041</v>
       </c>
       <c r="G69">
-        <v>0.01588176861253166</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02381195833832362</v>
+      </c>
+      <c r="H69">
+        <v>-0.04576189972084918</v>
+      </c>
+      <c r="I69">
+        <v>-0.0002783245337342431</v>
+      </c>
+      <c r="J69">
+        <v>-0.004639600166466602</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.001182552197169052</v>
+        <v>0.04103040039554177</v>
       </c>
       <c r="C71">
-        <v>0.2613790183721127</v>
+        <v>-0.2484866512896999</v>
       </c>
       <c r="D71">
-        <v>0.009793150525278745</v>
+        <v>0.0146062099935281</v>
       </c>
       <c r="E71">
-        <v>-0.06134364831632317</v>
+        <v>-0.07986674533207763</v>
       </c>
       <c r="F71">
-        <v>0.01365025198896776</v>
+        <v>0.01599509739388074</v>
       </c>
       <c r="G71">
-        <v>-0.09294189466474706</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01623761347170852</v>
+      </c>
+      <c r="H71">
+        <v>0.04147168632160556</v>
+      </c>
+      <c r="I71">
+        <v>0.1397297191066851</v>
+      </c>
+      <c r="J71">
+        <v>-0.03356182869163495</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1165050747814905</v>
+        <v>0.1189612249083358</v>
       </c>
       <c r="C72">
-        <v>0.02104139351764411</v>
+        <v>0.004433078190110751</v>
       </c>
       <c r="D72">
-        <v>-0.03043682752779534</v>
+        <v>-0.05757154770940244</v>
       </c>
       <c r="E72">
-        <v>-0.08395206919320837</v>
+        <v>-0.05874269832598147</v>
       </c>
       <c r="F72">
-        <v>0.008604348899251919</v>
+        <v>0.06236192464942276</v>
       </c>
       <c r="G72">
-        <v>0.05497368293799356</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.04113797510347811</v>
+      </c>
+      <c r="H72">
+        <v>0.00104895454760747</v>
+      </c>
+      <c r="I72">
+        <v>-0.02168059196569535</v>
+      </c>
+      <c r="J72">
+        <v>-0.1309706415240506</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2800001418798859</v>
+        <v>0.2707258472239502</v>
       </c>
       <c r="C73">
-        <v>0.1961749626783098</v>
+        <v>-0.1062511147788937</v>
       </c>
       <c r="D73">
-        <v>0.04422436253175134</v>
+        <v>0.002459352570656149</v>
       </c>
       <c r="E73">
-        <v>-0.3016516999258631</v>
+        <v>-0.3254355810312544</v>
       </c>
       <c r="F73">
-        <v>0.07793434000468048</v>
+        <v>0.1055368602153492</v>
       </c>
       <c r="G73">
-        <v>-0.397764060563805</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1297582634350328</v>
+      </c>
+      <c r="H73">
+        <v>0.4432978980758666</v>
+      </c>
+      <c r="I73">
+        <v>-0.3361190947814874</v>
+      </c>
+      <c r="J73">
+        <v>-0.06556575207500479</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.15755439211891</v>
+        <v>0.1517729505445475</v>
       </c>
       <c r="C74">
-        <v>0.01048152621318538</v>
+        <v>0.01890817159938812</v>
       </c>
       <c r="D74">
-        <v>-0.05036819401043072</v>
+        <v>-0.04722187807080445</v>
       </c>
       <c r="E74">
-        <v>0.0003708646462478945</v>
+        <v>0.03256266067129392</v>
       </c>
       <c r="F74">
-        <v>-0.05003888347740498</v>
+        <v>-0.02596800685938374</v>
       </c>
       <c r="G74">
-        <v>-0.03093999355991291</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.0155953173061042</v>
+      </c>
+      <c r="H74">
+        <v>0.01710272169487772</v>
+      </c>
+      <c r="I74">
+        <v>-0.01084644085016486</v>
+      </c>
+      <c r="J74">
+        <v>0.09158995135704544</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2351553525442613</v>
+        <v>0.2418600809763128</v>
       </c>
       <c r="C75">
-        <v>0.01635316766455603</v>
+        <v>0.01898243862260809</v>
       </c>
       <c r="D75">
-        <v>-0.06494010519486224</v>
+        <v>-0.101562723591618</v>
       </c>
       <c r="E75">
-        <v>0.1195789135639712</v>
+        <v>0.09797204208094634</v>
       </c>
       <c r="F75">
-        <v>-0.07097673061900651</v>
+        <v>-0.09092214866451191</v>
       </c>
       <c r="G75">
-        <v>-0.02304647275463009</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.006396747432408494</v>
+      </c>
+      <c r="H75">
+        <v>0.01456216722198532</v>
+      </c>
+      <c r="I75">
+        <v>0.05954724800205712</v>
+      </c>
+      <c r="J75">
+        <v>0.1082480339760074</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2423919844909107</v>
+        <v>0.265735654828571</v>
       </c>
       <c r="C76">
-        <v>0.02138419777972198</v>
+        <v>0.01340199887782738</v>
       </c>
       <c r="D76">
-        <v>-0.1085860089601178</v>
+        <v>-0.1282247985654522</v>
       </c>
       <c r="E76">
-        <v>0.1041486671329272</v>
+        <v>0.1436302226290894</v>
       </c>
       <c r="F76">
-        <v>-0.08508316142302425</v>
+        <v>-0.0911123321671741</v>
       </c>
       <c r="G76">
-        <v>-0.0435086853215872</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04671297998599654</v>
+      </c>
+      <c r="H76">
+        <v>0.03061995924610782</v>
+      </c>
+      <c r="I76">
+        <v>-0.02463038740190661</v>
+      </c>
+      <c r="J76">
+        <v>0.123900504690901</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.127115370718211</v>
+        <v>0.1343282772867558</v>
       </c>
       <c r="C77">
-        <v>-0.01698370212258465</v>
+        <v>0.05067193753334655</v>
       </c>
       <c r="D77">
-        <v>0.06262098710002406</v>
+        <v>0.04337701807766237</v>
       </c>
       <c r="E77">
-        <v>-0.164843736065978</v>
+        <v>-0.1159772475717132</v>
       </c>
       <c r="F77">
-        <v>0.02090630567039448</v>
+        <v>0.1270849592395294</v>
       </c>
       <c r="G77">
-        <v>0.159241247411236</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.01882041030483608</v>
+      </c>
+      <c r="H77">
+        <v>-0.1913976220482149</v>
+      </c>
+      <c r="I77">
+        <v>0.1636581001870341</v>
+      </c>
+      <c r="J77">
+        <v>0.1085188985766152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.09288831012144146</v>
+        <v>0.08968495085546241</v>
       </c>
       <c r="C78">
-        <v>-0.03047136880612157</v>
+        <v>0.05844288148529807</v>
       </c>
       <c r="D78">
-        <v>0.02045197499139932</v>
+        <v>-0.001040817982630341</v>
       </c>
       <c r="E78">
-        <v>-0.06428323846901456</v>
+        <v>-0.05098330883882243</v>
       </c>
       <c r="F78">
-        <v>0.01406882734339998</v>
+        <v>0.07134176545462986</v>
       </c>
       <c r="G78">
-        <v>-0.001804602770324718</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.004541826476361736</v>
+      </c>
+      <c r="H78">
+        <v>-0.02666229663025476</v>
+      </c>
+      <c r="I78">
+        <v>0.03169195918468095</v>
+      </c>
+      <c r="J78">
+        <v>0.01547954751984725</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.06031752245174118</v>
+        <v>0.114595745587962</v>
       </c>
       <c r="C80">
-        <v>-0.004450357039947171</v>
+        <v>-0.1203933888611322</v>
       </c>
       <c r="D80">
-        <v>0.003542210992702872</v>
+        <v>0.2160755024450005</v>
       </c>
       <c r="E80">
-        <v>-0.02960597350439118</v>
+        <v>0.6271024382804826</v>
       </c>
       <c r="F80">
-        <v>-0.02928810838685712</v>
+        <v>0.6981609954138669</v>
       </c>
       <c r="G80">
-        <v>0.3638648370362747</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.01074635605551043</v>
+      </c>
+      <c r="H80">
+        <v>0.1334912840192767</v>
+      </c>
+      <c r="I80">
+        <v>-0.06810138184389991</v>
+      </c>
+      <c r="J80">
+        <v>-0.08108499033213726</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1618423074393875</v>
+        <v>0.1762892312821981</v>
       </c>
       <c r="C81">
-        <v>0.01506979561082224</v>
+        <v>0.003633804500095199</v>
       </c>
       <c r="D81">
-        <v>-0.0551221097669997</v>
+        <v>-0.08357875415447744</v>
       </c>
       <c r="E81">
-        <v>0.119391353040767</v>
+        <v>0.1118717966921675</v>
       </c>
       <c r="F81">
-        <v>-0.09661336626931205</v>
+        <v>-0.09344477290240633</v>
       </c>
       <c r="G81">
-        <v>-0.01975988305081541</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.0227747240903554</v>
+      </c>
+      <c r="H81">
+        <v>0.006658868907806224</v>
+      </c>
+      <c r="I81">
+        <v>0.03065183791532439</v>
+      </c>
+      <c r="J81">
+        <v>0.05992293193574163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.08237437543306521</v>
+        <v>0.06421740170967753</v>
       </c>
       <c r="C83">
-        <v>-0.03573843219407472</v>
+        <v>0.04054402041055134</v>
       </c>
       <c r="D83">
-        <v>0.09022154939833016</v>
+        <v>0.03866939704405526</v>
       </c>
       <c r="E83">
-        <v>-0.02892797731333206</v>
+        <v>-0.05606846468850947</v>
       </c>
       <c r="F83">
-        <v>0.06096864545546282</v>
+        <v>0.021561071930395</v>
       </c>
       <c r="G83">
-        <v>0.029224044966066</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04541897837444949</v>
+      </c>
+      <c r="H83">
+        <v>-0.04156231873373843</v>
+      </c>
+      <c r="I83">
+        <v>0.02439933743324832</v>
+      </c>
+      <c r="J83">
+        <v>0.08456990173735572</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2373049308634676</v>
+        <v>0.2544708431338924</v>
       </c>
       <c r="C85">
-        <v>-0.04491767315511469</v>
+        <v>0.05223476490943579</v>
       </c>
       <c r="D85">
-        <v>-0.06121648474008965</v>
+        <v>-0.08739202830116394</v>
       </c>
       <c r="E85">
-        <v>0.1324811534832793</v>
+        <v>0.1381773326770362</v>
       </c>
       <c r="F85">
-        <v>-0.06338000528484243</v>
+        <v>-0.08800090285464256</v>
       </c>
       <c r="G85">
-        <v>0.01443203157679731</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.003863557439318914</v>
+      </c>
+      <c r="H85">
+        <v>-0.02169628620956612</v>
+      </c>
+      <c r="I85">
+        <v>0.04018166464173462</v>
+      </c>
+      <c r="J85">
+        <v>0.1301090913619979</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04786608928902179</v>
+        <v>0.02920947815447747</v>
       </c>
       <c r="C86">
-        <v>-0.03645168143654495</v>
+        <v>0.04418785920316962</v>
       </c>
       <c r="D86">
-        <v>-0.007070002857507137</v>
+        <v>-0.005827315609347236</v>
       </c>
       <c r="E86">
-        <v>-0.04832727938752746</v>
+        <v>-0.03079686075738241</v>
       </c>
       <c r="F86">
-        <v>0.003231408776072742</v>
+        <v>0.06032946613087412</v>
       </c>
       <c r="G86">
-        <v>0.03715861703471636</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.004387054373502268</v>
+      </c>
+      <c r="H86">
+        <v>-0.05426841772648849</v>
+      </c>
+      <c r="I86">
+        <v>0.05382018750558354</v>
+      </c>
+      <c r="J86">
+        <v>0.007633200480442761</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02428887621912021</v>
+        <v>0.03560291467376717</v>
       </c>
       <c r="C87">
-        <v>0.05416755222306267</v>
+        <v>-0.02225825787927075</v>
       </c>
       <c r="D87">
-        <v>-0.01477690066909985</v>
+        <v>-0.005836156999931796</v>
       </c>
       <c r="E87">
-        <v>-0.06118721244060923</v>
+        <v>-0.0735295777976155</v>
       </c>
       <c r="F87">
-        <v>0.05530972053591877</v>
+        <v>0.06096221574356901</v>
       </c>
       <c r="G87">
-        <v>-0.1221434229068185</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02244520866654197</v>
+      </c>
+      <c r="H87">
+        <v>0.01039583277523585</v>
+      </c>
+      <c r="I87">
+        <v>-0.01151073454403066</v>
+      </c>
+      <c r="J87">
+        <v>-0.07560937093861142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03757375132819638</v>
+        <v>0.02452238215495989</v>
       </c>
       <c r="C88">
-        <v>-0.02399756357700825</v>
+        <v>0.01632804781853811</v>
       </c>
       <c r="D88">
-        <v>-0.009465352186860012</v>
+        <v>-0.0120725717140273</v>
       </c>
       <c r="E88">
-        <v>0.005033304430370955</v>
+        <v>0.02137384684112059</v>
       </c>
       <c r="F88">
-        <v>-0.01187991706847322</v>
+        <v>0.01800890284858517</v>
       </c>
       <c r="G88">
-        <v>0.04458526653733856</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02569090858758038</v>
+      </c>
+      <c r="H88">
+        <v>-0.04221544758752305</v>
+      </c>
+      <c r="I88">
+        <v>-0.02280940317238506</v>
+      </c>
+      <c r="J88">
+        <v>-0.01655224481853317</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.01914239125401988</v>
+        <v>0.05501725132439998</v>
       </c>
       <c r="C89">
-        <v>0.4260325671784497</v>
+        <v>-0.3947708136713434</v>
       </c>
       <c r="D89">
-        <v>0.104924812602658</v>
+        <v>0.03729329663475364</v>
       </c>
       <c r="E89">
-        <v>0.03354393477891782</v>
+        <v>-0.07483645713493112</v>
       </c>
       <c r="F89">
-        <v>0.02276444903781129</v>
+        <v>-0.02720533223453179</v>
       </c>
       <c r="G89">
-        <v>0.05119465443619724</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.07772386466341828</v>
+      </c>
+      <c r="H89">
+        <v>-0.01677620609950358</v>
+      </c>
+      <c r="I89">
+        <v>0.2998690000431711</v>
+      </c>
+      <c r="J89">
+        <v>0.02582880102740645</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.01444287331700437</v>
+        <v>0.03513990891019316</v>
       </c>
       <c r="C90">
-        <v>0.3069727266134405</v>
+        <v>-0.3341765920824967</v>
       </c>
       <c r="D90">
-        <v>0.03030585653160164</v>
+        <v>0.02210440947703661</v>
       </c>
       <c r="E90">
-        <v>-0.02685453492051716</v>
+        <v>-0.04187138426678313</v>
       </c>
       <c r="F90">
-        <v>0.00645519124572116</v>
+        <v>0.01499957024785657</v>
       </c>
       <c r="G90">
-        <v>-0.06714799748250261</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.0237575578121013</v>
+      </c>
+      <c r="H90">
+        <v>0.02860957438744866</v>
+      </c>
+      <c r="I90">
+        <v>0.2111250921534298</v>
+      </c>
+      <c r="J90">
+        <v>-0.0171855503302871</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.3025549650411443</v>
+        <v>0.3151111758594402</v>
       </c>
       <c r="C91">
-        <v>-0.01393361334976999</v>
+        <v>0.03776961060743565</v>
       </c>
       <c r="D91">
-        <v>-0.07325220324870763</v>
+        <v>-0.1007150118270992</v>
       </c>
       <c r="E91">
-        <v>0.2655442434946407</v>
+        <v>0.2195434874296157</v>
       </c>
       <c r="F91">
-        <v>-0.1729299234411205</v>
+        <v>-0.1883565847247896</v>
       </c>
       <c r="G91">
-        <v>0.0720316316093183</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.0368347878743558</v>
+      </c>
+      <c r="H91">
+        <v>0.01628089985393097</v>
+      </c>
+      <c r="I91">
+        <v>0.08140275410779159</v>
+      </c>
+      <c r="J91">
+        <v>0.2472693954948718</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.03832761020980017</v>
+        <v>0.07325562728448758</v>
       </c>
       <c r="C92">
-        <v>0.4375766772388428</v>
+        <v>-0.4633949129508727</v>
       </c>
       <c r="D92">
-        <v>0.1910750026168946</v>
+        <v>0.06563466625253592</v>
       </c>
       <c r="E92">
-        <v>0.1101162842926727</v>
+        <v>0.07980635109923792</v>
       </c>
       <c r="F92">
-        <v>-0.1056506536154692</v>
+        <v>-0.1320829895104479</v>
       </c>
       <c r="G92">
-        <v>0.4538765220730278</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.03394098698593338</v>
+      </c>
+      <c r="H92">
+        <v>-0.5132834182578904</v>
+      </c>
+      <c r="I92">
+        <v>-0.6677134344175361</v>
+      </c>
+      <c r="J92">
+        <v>0.1300434268932155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.03070146725848526</v>
+        <v>0.03495576408568386</v>
       </c>
       <c r="C93">
-        <v>0.3681391380307698</v>
+        <v>-0.4046189281491375</v>
       </c>
       <c r="D93">
-        <v>0.0736948634993326</v>
+        <v>0.04893163549764018</v>
       </c>
       <c r="E93">
-        <v>0.05002847697272424</v>
+        <v>-0.02927634179503093</v>
       </c>
       <c r="F93">
-        <v>-0.02052872112150356</v>
+        <v>-0.05065534482610571</v>
       </c>
       <c r="G93">
-        <v>0.01668159469303464</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04099485971882066</v>
+      </c>
+      <c r="H93">
+        <v>0.03882006531586681</v>
+      </c>
+      <c r="I93">
+        <v>0.1974045223390802</v>
+      </c>
+      <c r="J93">
+        <v>0.008368342709085246</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2925787377756409</v>
+        <v>0.3185698593994626</v>
       </c>
       <c r="C94">
-        <v>0.03902935094461973</v>
+        <v>-0.004645106636487309</v>
       </c>
       <c r="D94">
-        <v>-0.04356656123611567</v>
+        <v>-0.1493666824446314</v>
       </c>
       <c r="E94">
-        <v>0.3716061397104268</v>
+        <v>0.2434417840173396</v>
       </c>
       <c r="F94">
-        <v>-0.4241108925950904</v>
+        <v>-0.2825600478075828</v>
       </c>
       <c r="G94">
-        <v>-0.04101117619151919</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1596853740839089</v>
+      </c>
+      <c r="H94">
+        <v>-0.07315258808757223</v>
+      </c>
+      <c r="I94">
+        <v>0.1346780638740415</v>
+      </c>
+      <c r="J94">
+        <v>-0.3891552039567975</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1997573881135624</v>
+        <v>0.1392088848718185</v>
       </c>
       <c r="C95">
-        <v>0.03994473703632715</v>
+        <v>0.05924788488481804</v>
       </c>
       <c r="D95">
-        <v>-0.01510646072845057</v>
+        <v>-0.0479871521952317</v>
       </c>
       <c r="E95">
-        <v>0.4549273112892792</v>
+        <v>-0.00760190537498941</v>
       </c>
       <c r="F95">
-        <v>0.8178675754029446</v>
+        <v>-0.05424524979044906</v>
       </c>
       <c r="G95">
-        <v>0.08506097013723053</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.9327712943734665</v>
+      </c>
+      <c r="H95">
+        <v>0.08468954981022976</v>
+      </c>
+      <c r="I95">
+        <v>-0.07463381323184307</v>
+      </c>
+      <c r="J95">
+        <v>-0.2022130086474941</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.218094461307561</v>
+        <v>0.2076896187330942</v>
       </c>
       <c r="C98">
-        <v>0.1340011842071003</v>
+        <v>-0.07098545079994756</v>
       </c>
       <c r="D98">
-        <v>0.03863490619268917</v>
+        <v>0.01125159858739249</v>
       </c>
       <c r="E98">
-        <v>-0.1058917153690598</v>
+        <v>-0.1885117231801923</v>
       </c>
       <c r="F98">
-        <v>0.03386598406073008</v>
+        <v>0.02492606784578308</v>
       </c>
       <c r="G98">
-        <v>-0.2662504446564613</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.06970635753746243</v>
+      </c>
+      <c r="H98">
+        <v>0.3083277411880748</v>
+      </c>
+      <c r="I98">
+        <v>-0.2001005929992478</v>
+      </c>
+      <c r="J98">
+        <v>0.005853159612537208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02063415440131149</v>
+        <v>0.01280003602990234</v>
       </c>
       <c r="C101">
-        <v>-0.01676135266730149</v>
+        <v>0.02893251939336183</v>
       </c>
       <c r="D101">
-        <v>-0.02375693549156987</v>
+        <v>-0.02832639914752936</v>
       </c>
       <c r="E101">
-        <v>-0.03053344221445281</v>
+        <v>-0.03248635166089275</v>
       </c>
       <c r="F101">
-        <v>0.009303724603369451</v>
+        <v>0.0597138555808713</v>
       </c>
       <c r="G101">
-        <v>0.04147488621152836</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.00584558869231005</v>
+      </c>
+      <c r="H101">
+        <v>-0.1161800884796989</v>
+      </c>
+      <c r="I101">
+        <v>-0.007753106692512649</v>
+      </c>
+      <c r="J101">
+        <v>-0.1697275009943784</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1184133862193347</v>
+        <v>0.1208286015964058</v>
       </c>
       <c r="C102">
-        <v>-0.006369557955138396</v>
+        <v>0.02532479814896913</v>
       </c>
       <c r="D102">
-        <v>-0.04405701470348439</v>
+        <v>-0.05255576131932641</v>
       </c>
       <c r="E102">
-        <v>0.08213537806708957</v>
+        <v>0.08057638042087974</v>
       </c>
       <c r="F102">
-        <v>-0.004843675593196914</v>
+        <v>-0.04435043903742351</v>
       </c>
       <c r="G102">
-        <v>0.0008924015361294938</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.02816945359266089</v>
+      </c>
+      <c r="H102">
+        <v>0.0120205512154291</v>
+      </c>
+      <c r="I102">
+        <v>0.03695554253263363</v>
+      </c>
+      <c r="J102">
+        <v>0.04828969940833378</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01731703568507117</v>
+        <v>0.03068638036808732</v>
       </c>
       <c r="C103">
-        <v>0.002107715318243295</v>
+        <v>0.00458444192678334</v>
       </c>
       <c r="D103">
-        <v>-0.01802704815445672</v>
+        <v>-0.02038611585234848</v>
       </c>
       <c r="E103">
-        <v>0.02772048041834547</v>
+        <v>0.03007801019158946</v>
       </c>
       <c r="F103">
-        <v>-0.01636866519483198</v>
+        <v>-0.001696936881775912</v>
       </c>
       <c r="G103">
-        <v>-0.009212350717021299</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01388401585683872</v>
+      </c>
+      <c r="H103">
+        <v>-0.01144757289316932</v>
+      </c>
+      <c r="I103">
+        <v>0.02930193398216345</v>
+      </c>
+      <c r="J103">
+        <v>0.00847743039246735</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
